--- a/biology/Histoire de la zoologie et de la botanique/Heinrich_Cotta/Heinrich_Cotta.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Heinrich_Cotta/Heinrich_Cotta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Heinrich Cotta (30 octobre 1763 à Zillbach - 25 octobre 1844 à Tharandt) était un important scientifique allemand, spécialiste de sylviculture. Il fut l'un des fondateurs de cette branche scientifique, et y gagna une renommée mondiale.
 </t>
@@ -511,7 +523,9 @@
           <t>Vie et œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Heinrich Cotta est né dans la maison forestière « Kleine Zillbach » près de Wasungen (dans la montagne de la Rhön, en Thuringe). Il fut éduqué par son père, forestier princier de Weimar à partir de 1778 et libéré en 1780 comme « jeune chasseur ».
 En 1784-1785, il fait des études de mathématiques, sciences naturelles et caméralisme à l’université d'Iéna et se consacre ensuite à des travaux de topographie. Dans ce contexte, il commence, dès 1786, avec son père, à enseigner le génie forestier. En 1789, Cotta devient « coureur de forêt » ducal de Weimar.
@@ -549,7 +563,9 @@
           <t>Cotta, partisan bourgeois</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Souvent, même dans des cercles forestiers, on présume que Johann Heinrich Cotta aurait été anobli ou qu’il aurait porté un titre de noblesse. Ceci est faux, comme son biographe, Albert Richter (de), l’a déjà montré en 1950 (toutes les citations suivantes de celui-ci). La famille Cotta aurait donc encore eu en sa possession, jusqu’à l’incendie d’Ilmenau en 1752, la lettre originale de noblesse signée par l’empereur Sigismund en 1420, mais n’en aurait plus fait usage. La famille était divisée en une branche sud-allemande et une de Thuringe-Saxe. Mais d’après des recherches ultérieures, il n’y aurait pas eu de relations parentales de facto entre les deux lignées Cotta. À l’époque, on croyait pourtant à une descendance commune de  Bonaventura Cotta (de).
 Devant cet état de fait, le célèbre libraire et éditeur Johann Friedrich Cotta aurait, d’après une note de Wilhelm von Cotta, demandé à Heinrich Cotta, en 1817, d’entreprendre des démarches communes afin de faire rétablir leur titre de noblesse. Mais ce dernier par ses convictions démocratiques et bien consciemment bourgeoises, déclina l'offre. Il avait déjà cessé le retour vers la noblesse, tenté par son père en 1796, et il n’utilisait non plus le sceau des Cotta, mais un sceau anonyme. Wilhelm von Cotta décrivit l’attitude de son père, en 1860, en ces mots :
@@ -589,7 +605,9 @@
           <t>Œuvres (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Systematische Anleitung zur Taxation der Waldungen (Orientations systématiques sur l'évaluation des forêts ou traité d'aménagement forestier), Berlin 1804</t>
         </is>
@@ -619,7 +637,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">1836	Croix de commandant de l’ordre civil de mérite de la Saxe
 1836 	Ordre de l’Aigle rouge IIIe classe
@@ -655,7 +675,9 @@
           <t>Monuments</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Mis à part Tharandt, où se trouvent plusieurs monuments en honneur de Cotta, son héritage est maintenu vivant avec beaucoup de soin à l'endroit de sa naissance et au lieu de ses premières activités, à Zillbach. Il y a une place Heinrich-Cotta avec pierre commémorative pour le célèbre fils du village. La plantation établie, à l’époque, par Cotta est encore en fonction. Le 12 juin 2000, fut encore fondé le Freundeskreis Heinrich Cotta e.V. Zillbach (Cercle d’amis de Heinrich Cotta Zillbach). Il s’est posé comme objectif la culture du legs culturel de Heinrich Cotta.
 Il existe une rue Heinrich-Cotta à Zillbach, à Tharandt, mais également à Dresde. À Berlin-Pankow, la rue Cotta est nommée d’après lui. À Sitzendorf on peut explorer le sentier de la nature Heinrich-Cotta et à Hammerunterwiesenthal se trouve la pépinière forestière Heinrich-Cotta.
